--- a/config_debug/head_image_server.xlsx
+++ b/config_debug/head_image_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\头像\欢乐捕鱼头像\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,156 +30,156 @@
     <t>vip_permission</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head001.jpg</t>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head001.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head001.jpg</t>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head002.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head003.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head004.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head005.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head006.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head007.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head008.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head009.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head010.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head011.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head012.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head013.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head014.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head015.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head016.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head017.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head018.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head019.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head020.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head021.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head022.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head023.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head024.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head025.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head001.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head002.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head003.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head004.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head005.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head006.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head007.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head008.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head009.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head010.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head011.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head012.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head013.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head014.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head015.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head016.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head017.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head018.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head019.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head020.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head021.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head022.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head023.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head024.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/girl/new_girl_head025.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head002.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head003.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head004.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head005.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head006.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head007.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head008.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head009.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head010.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head011.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head012.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head013.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head014.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head015.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head016.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head017.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head018.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head019.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head020.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head021.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head022.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head023.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head024.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/boy/new_boy_head025.jpg</t>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head002.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head003.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head004.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head005.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head006.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head007.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head008.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head009.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head010.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head011.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head012.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head013.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head014.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head015.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head016.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head017.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head018.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head019.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head020.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head021.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head022.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head023.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head024.jpg</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head025.jpg</t>
   </si>
 </sst>
 </file>
@@ -199,12 +199,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -534,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -584,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -595,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -606,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -617,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -628,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -639,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -650,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -661,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -672,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -683,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -694,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -705,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -727,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -749,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -760,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -771,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -782,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -793,7 +795,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -815,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -837,7 +839,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1112,8 +1114,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B27" r:id="rId2"/>
-    <hyperlink ref="B3:B26" r:id="rId3" display="http://jydown.jyhd919.cn/head_images3/girl/new_girl_head001.jpg"/>
-    <hyperlink ref="B28:B51" r:id="rId4" display="http://jydown.jyhd919.cn/head_images3/boy/new_boy_head001.jpg"/>
+    <hyperlink ref="B3:B26" r:id="rId3" display="http://jydown.jyhd919.cn/head_images3/hlby/girl/new_girl_head001.jpg"/>
+    <hyperlink ref="B28:B51" r:id="rId4" display="http://jydown.jyhd919.cn/head_images3/hlby/boy/new_boy_head001.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/config_debug/head_image_server.xlsx
+++ b/config_debug/head_image_server.xlsx
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level_permission__tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5级解锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +316,10 @@
   </si>
   <si>
     <t>Lv100开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>level_permission_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>54</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -938,10 +938,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -958,10 +958,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -978,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -998,10 +998,10 @@
         <v>35</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1018,10 +1018,10 @@
         <v>45</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1038,10 +1038,10 @@
         <v>55</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1058,10 +1058,10 @@
         <v>65</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
         <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1098,10 +1098,10 @@
         <v>85</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,10 +1118,10 @@
         <v>95</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1374,10 +1374,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1394,10 +1394,10 @@
         <v>30</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1414,10 +1414,10 @@
         <v>40</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1434,10 +1434,10 @@
         <v>50</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1454,10 +1454,10 @@
         <v>60</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>70</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1494,10 +1494,10 @@
         <v>80</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1514,10 +1514,10 @@
         <v>90</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1534,10 +1534,10 @@
         <v>100</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/head_image_server.xlsx
+++ b/config_debug/head_image_server.xlsx
@@ -133,18 +133,12 @@
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head009.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head011.jpg</t>
   </si>
   <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head012.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head013.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head014.jpg</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head016.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head017.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head018.jpg</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head020.jpg</t>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg</t>
-  </si>
-  <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head022.jpg</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
   </si>
   <si>
     <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head024.jpg</t>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
   </si>
   <si>
     <t>vip_permission</t>
@@ -200,14 +185,6 @@
     <t>30级解锁</t>
   </si>
   <si>
-    <t>15级解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35级解锁</t>
   </si>
   <si>
@@ -233,92 +210,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>40级解锁</t>
+  </si>
+  <si>
+    <t>50级解锁</t>
+  </si>
+  <si>
+    <t>60级解锁</t>
+  </si>
+  <si>
+    <t>70级解锁</t>
+  </si>
+  <si>
+    <t>80级解锁</t>
+  </si>
+  <si>
+    <t>90级解锁</t>
+  </si>
+  <si>
+    <t>100级解锁</t>
+  </si>
+  <si>
+    <t>Lv5开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv15开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv25开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv35开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv45开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv55开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv65开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv75开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv85开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv95开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv10开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv20开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv30开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv40开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv50开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv60开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv70开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv80开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv90开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>Lv100开启，在3D捕鱼中开炮可提升等级!</t>
+  </si>
+  <si>
+    <t>level_permission_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级解锁</t>
+  </si>
+  <si>
     <t>20级解锁</t>
+  </si>
+  <si>
+    <t>25级解锁</t>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40级解锁</t>
-  </si>
-  <si>
-    <t>50级解锁</t>
-  </si>
-  <si>
-    <t>60级解锁</t>
-  </si>
-  <si>
-    <t>70级解锁</t>
-  </si>
-  <si>
-    <t>80级解锁</t>
-  </si>
-  <si>
-    <t>90级解锁</t>
-  </si>
-  <si>
-    <t>100级解锁</t>
-  </si>
-  <si>
-    <t>Lv5开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv15开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv25开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv35开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv45开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv55开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv65开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv75开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv85开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv95开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv10开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv20开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv30开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv40开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv50开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv60开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv70开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv80开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv90开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>Lv100开启，在3D捕鱼中开炮可提升等级!</t>
-  </si>
-  <si>
-    <t>level_permission_tips</t>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head013.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head017.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +346,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -373,10 +384,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -399,9 +411,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,16 +712,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,13 +951,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,13 +965,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -975,13 +979,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,13 +993,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>35</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,13 +1007,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>45</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1035,13 +1021,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>55</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1055,13 +1035,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>65</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1075,13 +1049,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>75</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,13 +1063,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>85</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1115,13 +1077,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>95</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,7 +1161,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1219,7 +1181,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,7 +1201,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1247,137 +1221,173 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>36</v>
+      <c r="B36" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>39</v>
+      <c r="B39" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>43</v>
+      <c r="B43" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1385,19 +1395,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,19 +1415,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1425,39 +1435,39 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>47</v>
+      <c r="B47" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,19 +1475,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,19 +1495,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1505,27 +1515,27 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>51</v>
+      <c r="B51" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -1534,15 +1544,22 @@
         <v>100</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B36" r:id="rId1"/>
+    <hyperlink ref="B39" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId3"/>
+    <hyperlink ref="B51" r:id="rId4"/>
+    <hyperlink ref="B47" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>